--- a/Task4/Task4.xlsx
+++ b/Task4/Task4.xlsx
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,7 +1158,7 @@
         <v>4547242.6999999797</v>
       </c>
       <c r="Z4" s="1">
-        <f t="shared" ref="Z4:Z19" si="0">SUM(B4:Y4)</f>
+        <f t="shared" ref="Z4:Z26" si="0">SUM(B4:Y4)</f>
         <v>194661383.1999999</v>
       </c>
     </row>
@@ -1198,21 +1198,45 @@
       <c r="M5" s="3">
         <v>7341624</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="N5" s="3">
+        <v>5852774.8999999398</v>
+      </c>
+      <c r="O5" s="3">
+        <v>4703905.4999999804</v>
+      </c>
+      <c r="P5" s="3">
+        <v>6149819.8999999696</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>5678624.6999999499</v>
+      </c>
+      <c r="R5" s="3">
+        <v>5129745.5999999801</v>
+      </c>
+      <c r="S5" s="3">
+        <v>3658599</v>
+      </c>
+      <c r="T5" s="3">
+        <v>3281278</v>
+      </c>
+      <c r="U5" s="3">
+        <v>3659375.3</v>
+      </c>
+      <c r="V5" s="3">
+        <v>4242710.4999999898</v>
+      </c>
+      <c r="W5" s="3">
+        <v>5402837.2999999803</v>
+      </c>
+      <c r="X5" s="3">
+        <v>5158465.1999999704</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>5185180.6999999704</v>
+      </c>
       <c r="Z5" s="1">
         <f t="shared" si="0"/>
-        <v>152326409</v>
+        <v>210429725.59999976</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1249,21 +1273,45 @@
       <c r="M6" s="3">
         <v>6970615</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="N6" s="3">
+        <v>5358380.2999999598</v>
+      </c>
+      <c r="O6" s="3">
+        <v>4245020.4999999898</v>
+      </c>
+      <c r="P6" s="3">
+        <v>5712270.1999999601</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>5287490.5999999596</v>
+      </c>
+      <c r="R6" s="3">
+        <v>4967732.6999999797</v>
+      </c>
+      <c r="S6" s="3">
+        <v>3616759.3</v>
+      </c>
+      <c r="T6" s="3">
+        <v>3557947.3999999901</v>
+      </c>
+      <c r="U6" s="3">
+        <v>3507320.5999999898</v>
+      </c>
+      <c r="V6" s="3">
+        <v>3764080.5999999898</v>
+      </c>
+      <c r="W6" s="3">
+        <v>4888668.3999999901</v>
+      </c>
+      <c r="X6" s="3">
+        <v>5415766.99999996</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>4973759.6999999899</v>
+      </c>
       <c r="Z6" s="1">
         <f t="shared" si="0"/>
-        <v>150726755</v>
+        <v>206021952.29999977</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1298,21 +1346,45 @@
       <c r="M7" s="3">
         <v>5572216</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="N7" s="3">
+        <v>3877077.3999999901</v>
+      </c>
+      <c r="O7" s="3">
+        <v>3108417.8999999901</v>
+      </c>
+      <c r="P7" s="3">
+        <v>3994950.4</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>3559289.29999999</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3621753.1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>2913649.2</v>
+      </c>
+      <c r="T7" s="3">
+        <v>2442988.1</v>
+      </c>
+      <c r="U7" s="3">
+        <v>2507619.7999999998</v>
+      </c>
+      <c r="V7" s="3">
+        <v>2731586.2</v>
+      </c>
+      <c r="W7" s="3">
+        <v>3400404.6999999899</v>
+      </c>
+      <c r="X7" s="3">
+        <v>3365314.3999999901</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>3346427.7</v>
+      </c>
       <c r="Z7" s="1">
         <f t="shared" si="0"/>
-        <v>107741480</v>
+        <v>146610958.19999993</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1345,21 +1417,45 @@
       <c r="M8" s="3">
         <v>6112115</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="N8" s="3">
+        <v>4287160.4999999804</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3710088.9</v>
+      </c>
+      <c r="P8" s="3">
+        <v>4987784.1999999704</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>4343495.7999999803</v>
+      </c>
+      <c r="R8" s="3">
+        <v>4382551.5999999903</v>
+      </c>
+      <c r="S8" s="3">
+        <v>3421771.5</v>
+      </c>
+      <c r="T8" s="3">
+        <v>3069880.8</v>
+      </c>
+      <c r="U8" s="3">
+        <v>2792155.8</v>
+      </c>
+      <c r="V8" s="3">
+        <v>2570729</v>
+      </c>
+      <c r="W8" s="3">
+        <v>3209569.3</v>
+      </c>
+      <c r="X8" s="3">
+        <v>3417852.9</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>2885806.6999999899</v>
+      </c>
       <c r="Z8" s="1">
         <f t="shared" si="0"/>
-        <v>110557591</v>
+        <v>153636437.99999997</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -1390,21 +1486,45 @@
       <c r="M9" s="3">
         <v>5447929</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+      <c r="N9" s="3">
+        <v>4166710.0999999801</v>
+      </c>
+      <c r="O9" s="3">
+        <v>3581234.29999999</v>
+      </c>
+      <c r="P9" s="3">
+        <v>4652681.5999999801</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>4081187.5999999898</v>
+      </c>
+      <c r="R9" s="3">
+        <v>4188803.5</v>
+      </c>
+      <c r="S9" s="3">
+        <v>3228765.4</v>
+      </c>
+      <c r="T9" s="3">
+        <v>3073816.2</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2841716.5</v>
+      </c>
+      <c r="V9" s="3">
+        <v>2877435.4</v>
+      </c>
+      <c r="W9" s="3">
+        <v>3346488.6</v>
+      </c>
+      <c r="X9" s="3">
+        <v>2972178.3</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>2908346</v>
+      </c>
       <c r="Z9" s="1">
         <f t="shared" si="0"/>
-        <v>98265484</v>
+        <v>140184847.49999997</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -1433,21 +1553,45 @@
       <c r="M10" s="3">
         <v>6211531</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
+      <c r="N10" s="3">
+        <v>4395853.6999999704</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3976784.6999999802</v>
+      </c>
+      <c r="P10" s="3">
+        <v>5321259.9999999702</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>4268847.7999999896</v>
+      </c>
+      <c r="R10" s="3">
+        <v>4071573.0999999898</v>
+      </c>
+      <c r="S10" s="3">
+        <v>3359152.9999999902</v>
+      </c>
+      <c r="T10" s="3">
+        <v>2708898.5</v>
+      </c>
+      <c r="U10" s="3">
+        <v>2920538.6</v>
+      </c>
+      <c r="V10" s="3">
+        <v>3343991</v>
+      </c>
+      <c r="W10" s="3">
+        <v>3768930.2</v>
+      </c>
+      <c r="X10" s="3">
+        <v>3829744.8</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>3553975.6</v>
+      </c>
       <c r="Z10" s="1">
         <f t="shared" si="0"/>
-        <v>108879561</v>
+        <v>154399111.99999988</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -1913,6 +2057,10 @@
       </c>
       <c r="Y20" s="3">
         <v>5141068.7999999803</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="0"/>
+        <v>143532735.49997663</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -1955,6 +2103,10 @@
       </c>
       <c r="Y21" s="3">
         <v>5067091.3999999696</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="0"/>
+        <v>138156858.69997379</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -1995,6 +2147,10 @@
       </c>
       <c r="Y22" s="3">
         <v>5998446.2999999505</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="0"/>
+        <v>148028928.59997177</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -2033,6 +2189,10 @@
       </c>
       <c r="Y23" s="3">
         <v>6455291.4999999497</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="0"/>
+        <v>146165882.09997073</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -2069,6 +2229,10 @@
       </c>
       <c r="Y24" s="3">
         <v>11886180.6</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="0"/>
+        <v>192194651.59998122</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -2103,6 +2267,10 @@
       </c>
       <c r="Y25" s="3">
         <v>13066993.1000001</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="0"/>
+        <v>207280568.6000081</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -2136,6 +2304,10 @@
       <c r="Y26" s="3">
         <v>241866102.800046</v>
       </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="0"/>
+        <v>241866102.800046</v>
+      </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
